--- a/pred_ohlcv/54_21/2020-01-16 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 APIS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2686777.578199999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1692027.7437</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1271537.473599999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2934773.4268</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1752016.7249</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-64661540.815</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-64993664.9004</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-64992748.5531</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-69576973.9206</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-69578427.89919999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-69577573.5871</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-73715743.4483</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-113759215.9755</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-114841880.9298</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-114841880.9298</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-114841043.0503</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-115653375.3775</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-116147060.9839</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-116981003.7201</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-113527826.3066</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-115829787.3867</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-115833873.1108</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-114654652.1377</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-116717813.4522</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-116716969.9791</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-120462785.6711</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-118224564.4589</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-121996783.6106</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-121995935.3279</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-126943225.3807</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-134732947.6043</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-134732947.6043</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-136915666.5918</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-140043279.3611</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-140042441.1439</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-140535625.4357</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 APIS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>895139.9241999993</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3629031.447699999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2686777.578199999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1692027.7437</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5675719.730899999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1271537.473599999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2933924.238799999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2934773.4268</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1752016.7249</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3340795.9484</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4588515.1008</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>135131.2065000003</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-64661540.815</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-64993664.9004</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-64992748.5531</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-69576973.9206</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-69578427.89919999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-69577573.5871</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-73715743.4483</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-116981003.7201</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-113527826.3066</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-115829787.3867</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-115833873.1108</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-114654652.1377</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-118224564.4589</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-121996783.6106</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-121995935.3279</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-126943225.3807</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-134732947.6043</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-134732947.6043</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-136915666.5918</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-140042441.1439</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-140535625.4357</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-142098565.7764</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-146304877.9089</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-146304011.0262</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-147480765.7834</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-149803952.797</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-149803115.2815</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
